--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -84,7 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
+    <t>BasicAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,12 +416,12 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -482,7 +482,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09AFAA-F26B-4C32-8C99-F39FDD5AC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,11 +413,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -524,6 +525,50 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09AFAA-F26B-4C32-8C99-F39FDD5AC3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,13 +85,41 @@
   </si>
   <si>
     <t>BasicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoPeerTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoProcessionTargetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 패시브스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestPassiveSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestActiveSkillOption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,31 +440,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="R6" sqref="A2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
+    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,34 +484,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -497,11 +533,11 @@
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -509,28 +545,34 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>15</v>
@@ -541,31 +583,137 @@
       <c r="E3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
       </c>
       <c r="H3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
+    <sheet name="PassiveSkillData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +19,58 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ActiveSkill = 0
+PassiveSkill = 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ActiveSkill = 0
+PassiveSkill = 1</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,7 +84,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isActiveSkill</t>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트용 스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,38 +104,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>skillCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>isPlayerTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isEnemyTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isFrontTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isRearTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>targetNum</t>
-  </si>
-  <si>
-    <t>activeSkillCoolTime</t>
-  </si>
-  <si>
-    <t>optionName1</t>
-  </si>
-  <si>
-    <t>optionName2</t>
-  </si>
-  <si>
-    <t>optionName3</t>
-  </si>
-  <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moduleName_3</t>
+  </si>
+  <si>
+    <t>TestModule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,39 +147,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoPeerTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoProcessionTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 패시브스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestPassiveSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestActiveSkillOption</t>
+    <t>isAllPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllEnemy</t>
+  </si>
+  <si>
+    <t>isOnStartBattle</t>
+  </si>
+  <si>
+    <t>isOnStartTurn</t>
+  </si>
+  <si>
+    <t>isOnAttack</t>
+  </si>
+  <si>
+    <t>isOnTakeDamage</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>테스트용 패시브 스킬1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestPassiveModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +199,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,9 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -440,11 +515,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="A2:R6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -452,93 +527,83 @@
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
@@ -548,49 +613,43 @@
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -598,128 +657,123 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC1D36-D119-447A-A499-5CC3980C2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,17 +41,48 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{A4A42C62-5D38-4B14-978A-B543088EC5FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = -1,
+PlayerFirst = 0
+EnemyFirst = 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7F5D6F40-4B34-45A4-81B0-CC2389417382}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = -1,
+FrontLineFirst = 0
+RearLineFirst = 1</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,14 +210,24 @@
   </si>
   <si>
     <t>skillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoPeerTargetType</t>
+  </si>
+  <si>
+    <t>autoProcessionTargetType</t>
+  </si>
+  <si>
+    <t>consumeManaValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +244,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -228,12 +276,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,59 +575,71 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -601,11 +658,11 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="b">
-        <v>1</v>
+      <c r="G2" s="1">
+        <v>0</v>
       </c>
       <c r="H2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -613,20 +670,29 @@
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -645,11 +711,11 @@
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="b">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -657,16 +723,25 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -679,11 +754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -746,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CC1D36-D119-447A-A499-5CC3980C2FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C531166-43AE-4518-9F55-C5F907A7AB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>isOnTakeDamage</t>
-  </si>
-  <si>
-    <t>ModuleName</t>
   </si>
   <si>
     <t>테스트용 패시브 스킬1</t>
@@ -563,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -591,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -606,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
@@ -624,10 +621,10 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>14</v>
@@ -755,10 +752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,10 +769,11 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,42 +805,54 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C531166-43AE-4518-9F55-C5F907A7AB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{A4A42C62-5D38-4B14-978A-B543088EC5FF}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{7F5D6F40-4B34-45A4-81B0-CC2389417382}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,12 +76,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,10 +556,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -751,11 +750,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,13 @@
   <si>
     <t>consumeManaValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonTest</t>
   </si>
 </sst>
 </file>
@@ -559,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,7 +586,9 @@
     <col min="12" max="12" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -682,7 +691,7 @@
         <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>18</v>
@@ -753,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -848,7 +857,7 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>18</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2EB61A-5F32-4048-9A82-5FF28EB114F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,25 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>moduleName_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moduleName_3</t>
-  </si>
-  <si>
-    <t>TestModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isAllPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestPassiveModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,17 +197,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PoisonTest</t>
+    <t>TestActiveSkill</t>
+  </si>
+  <si>
+    <t>TestBasicAttack</t>
+  </si>
+  <si>
+    <t>TestPassiveSkill</t>
+  </si>
+  <si>
+    <t>skillClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditinID_1</t>
+  </si>
+  <si>
+    <t>conditinID_2</t>
+  </si>
+  <si>
+    <t>conditinID_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -563,114 +556,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="b">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
@@ -678,76 +675,82 @@
       <c r="K2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>18</v>
+      <c r="P2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>18</v>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -759,83 +762,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="b">
@@ -853,14 +860,17 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2EB61A-5F32-4048-9A82-5FF28EB114F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,252 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        BasicAttack,    // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">공격
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        Firstpriority,  // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">최우선
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        Singleattack,   // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">공격
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        MultipleAttack, // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>광역</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">공격
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        SingleHeal,     // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단일</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">힐
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">        MultipleHeal    // </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>광역</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>힐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,12 +316,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,13 +456,27 @@
   </si>
   <si>
     <t>conditinID_3</t>
+  </si>
+  <si>
+    <t>skillDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeSkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
+  </si>
+  <si>
+    <t>Firstpriority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +503,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -556,36 +817,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,55 +854,58 @@
         <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -649,28 +913,28 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="b">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1" t="b">
         <v>1</v>
@@ -678,17 +942,17 @@
       <c r="L2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="N2" s="1">
         <v>1</v>
       </c>
       <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
         <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-1</v>
       </c>
       <c r="Q2" s="1">
         <v>-1</v>
@@ -696,8 +960,11 @@
       <c r="R2" s="1">
         <v>-1</v>
       </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -705,51 +972,54 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="b">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>3</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
         <v>1001</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>-1</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -762,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -290,7 +290,7 @@
             <family val="2"/>
           </rPr>
           <t>NONE = -1,
-PlayerFirst = 0
+AllyFirst = 0
 EnemyFirst = 1</t>
         </r>
       </text>
@@ -341,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isPlayerTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isEnemyTarget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,6 +466,23 @@
   </si>
   <si>
     <t>Firstpriority</t>
+  </si>
+  <si>
+    <t>TestActiveSkillFirst</t>
+  </si>
+  <si>
+    <t>MultipleAttack</t>
+  </si>
+  <si>
+    <t>테스트용 스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 자신의 공격력만큼의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllyTarget</t>
   </si>
 </sst>
 </file>
@@ -818,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,7 +842,7 @@
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.125" style="1" bestFit="1" customWidth="1"/>
@@ -851,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -872,37 +885,37 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -910,10 +923,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -969,10 +982,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1020,6 +1033,65 @@
         <v>-1</v>
       </c>
       <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -1060,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1072,31 +1144,31 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1104,13 +1176,13 @@
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273BF4C-C817-47EF-AD22-0824C6CD0CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,12 +317,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -432,63 +433,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TestBasicAttack</t>
+  </si>
+  <si>
+    <t>TestPassiveSkill</t>
+  </si>
+  <si>
+    <t>skillClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditinID_1</t>
+  </si>
+  <si>
+    <t>conditinID_2</t>
+  </si>
+  <si>
+    <t>conditinID_3</t>
+  </si>
+  <si>
+    <t>skillDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeSkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
+  </si>
+  <si>
+    <t>Firstpriority</t>
+  </si>
+  <si>
+    <t>TestActiveSkillFirst</t>
+  </si>
+  <si>
+    <t>MultipleAttack</t>
+  </si>
+  <si>
+    <t>테스트용 스킬2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 전체에게 자신의 공격력만큼의 피해를 입힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllyTarget</t>
+  </si>
+  <si>
     <t>TestActiveSkill</t>
-  </si>
-  <si>
-    <t>TestBasicAttack</t>
-  </si>
-  <si>
-    <t>TestPassiveSkill</t>
-  </si>
-  <si>
-    <t>skillClassName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conditinID_1</t>
-  </si>
-  <si>
-    <t>conditinID_2</t>
-  </si>
-  <si>
-    <t>conditinID_3</t>
-  </si>
-  <si>
-    <t>skillDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activeSkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BasicAttack</t>
-  </si>
-  <si>
-    <t>Firstpriority</t>
-  </si>
-  <si>
-    <t>TestActiveSkillFirst</t>
-  </si>
-  <si>
-    <t>MultipleAttack</t>
-  </si>
-  <si>
-    <t>테스트용 스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 전체에게 자신의 공격력만큼의 피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAllyTarget</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,11 +831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -888,7 +889,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -909,13 +910,13 @@
         <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -923,10 +924,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -938,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -982,10 +983,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1041,16 +1042,16 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1104,7 +1105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1132,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1162,13 +1163,13 @@
         <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1176,7 +1177,7 @@
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>19</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F273BF4C-C817-47EF-AD22-0824C6CD0CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,12 +316,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -484,12 +483,42 @@
   </si>
   <si>
     <t>TestActiveSkill</t>
+  </si>
+  <si>
+    <t>MultipleHeal</t>
+  </si>
+  <si>
+    <t>테스트용 광역힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleHeal</t>
+  </si>
+  <si>
+    <t>테스트용 단일힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 1인에게 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMultipleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSingleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -831,11 +860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,6 +1125,124 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B091B9-B4FD-4D0E-91BC-EA72EC7F2C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,12 +317,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -395,10 +396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>isAllPlayer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isAllEnemy</t>
   </si>
   <si>
@@ -513,12 +510,15 @@
   <si>
     <t>TestSingleHeal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllAlly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -860,10 +860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -894,16 +894,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -915,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -933,19 +933,19 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -953,10 +953,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -1012,10 +1012,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1071,16 +1071,16 @@
         <v>10002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1252,11 +1252,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1292,31 +1292,31 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1324,28 +1324,28 @@
         <v>20000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B091B9-B4FD-4D0E-91BC-EA72EC7F2C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2ACF70-6B63-48B7-9FE9-1E96862D2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +513,29 @@
   </si>
   <si>
     <t>isAllAlly</t>
+  </si>
+  <si>
+    <t>skillIconSpriteName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerald (1)</t>
+  </si>
+  <si>
+    <t>emerald (2)</t>
+  </si>
+  <si>
+    <t>emerald (3)</t>
+  </si>
+  <si>
+    <t>emerald (4)</t>
+  </si>
+  <si>
+    <t>emerald (5)</t>
+  </si>
+  <si>
+    <t>emerald (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -861,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,23 +896,24 @@
     <col min="2" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -906,49 +930,52 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -964,23 +991,23 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="b">
+      <c r="J2" s="1">
         <v>0</v>
       </c>
       <c r="K2" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="b">
         <v>1</v>
@@ -988,17 +1015,17 @@
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
         <v>-1</v>
@@ -1006,8 +1033,11 @@
       <c r="S2" s="1">
         <v>-1</v>
       </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -1023,23 +1053,23 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>0</v>
+      <c r="J3" s="1">
+        <v>1</v>
       </c>
       <c r="K3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="b">
         <v>1</v>
@@ -1047,26 +1077,29 @@
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>1001</v>
       </c>
-      <c r="R3" s="1">
-        <v>-1</v>
-      </c>
       <c r="S3" s="1">
         <v>-1</v>
       </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -1082,23 +1115,23 @@
       <c r="E4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>4</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="K4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>1</v>
@@ -1106,17 +1139,17 @@
       <c r="M4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
         <v>5</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
       <c r="P4" s="1">
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R4" s="1">
         <v>-1</v>
@@ -1124,8 +1157,11 @@
       <c r="S4" s="1">
         <v>-1</v>
       </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -1141,41 +1177,41 @@
       <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="b">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>5</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
       <c r="P5" s="1">
         <v>0</v>
       </c>
       <c r="Q5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
         <v>-1</v>
@@ -1183,8 +1219,11 @@
       <c r="S5" s="1">
         <v>-1</v>
       </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -1200,46 +1239,49 @@
       <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
       </c>
       <c r="K6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>-1</v>
       </c>
       <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -1253,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1264,18 +1306,19 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,37 +1332,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20000</v>
       </c>
@@ -1332,11 +1378,11 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -1348,18 +1394,21 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
         <v>1000</v>
       </c>
-      <c r="M2" s="1">
-        <v>-1</v>
-      </c>
       <c r="N2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="1">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2ACF70-6B63-48B7-9FE9-1E96862D2CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75537E-476D-405C-9FDE-FF0EBB67DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,69 +472,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>isAllyTarget</t>
+  </si>
+  <si>
+    <t>TestActiveSkill</t>
+  </si>
+  <si>
+    <t>MultipleHeal</t>
+  </si>
+  <si>
+    <t>테스트용 광역힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleHeal</t>
+  </si>
+  <si>
+    <t>테스트용 단일힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 1인에게 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestMultipleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestSingleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllAlly</t>
+  </si>
+  <si>
+    <t>skillIconSpriteName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emerald (1)</t>
+  </si>
+  <si>
+    <t>emerald (2)</t>
+  </si>
+  <si>
+    <t>emerald (3)</t>
+  </si>
+  <si>
+    <t>emerald (4)</t>
+  </si>
+  <si>
+    <t>emerald (5)</t>
+  </si>
+  <si>
+    <t>emerald (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 유닛 공격력의 {0}% 만큼 체력을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLevelValue_1</t>
+  </si>
+  <si>
+    <t>skillLevelValue_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillLevelValue_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적 전체에게 자신의 공격력만큼의 피해를 입힌다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAllyTarget</t>
-  </si>
-  <si>
-    <t>TestActiveSkill</t>
-  </si>
-  <si>
-    <t>MultipleHeal</t>
-  </si>
-  <si>
-    <t>테스트용 광역힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 전체에게 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleHeal</t>
-  </si>
-  <si>
-    <t>테스트용 단일힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 1인에게 힐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestMultipleHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSingleHeal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAllAlly</t>
-  </si>
-  <si>
-    <t>skillIconSpriteName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emerald (1)</t>
-  </si>
-  <si>
-    <t>emerald (2)</t>
-  </si>
-  <si>
-    <t>emerald (3)</t>
-  </si>
-  <si>
-    <t>emerald (4)</t>
-  </si>
-  <si>
-    <t>emerald (5)</t>
-  </si>
-  <si>
-    <t>emerald (6)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,24 +907,26 @@
     <col min="2" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,52 +943,61 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -991,17 +1013,17 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>49</v>
+      <c r="F2" s="1">
+        <v>0</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1009,40 +1031,49 @@
       <c r="K2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="b">
-        <v>1</v>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -1053,53 +1084,62 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
+      <c r="F3" s="1">
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1" t="b">
+      <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>3</v>
       </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
         <v>1001</v>
       </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -1113,175 +1153,202 @@
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>4</v>
       </c>
-      <c r="J4" s="1">
+      <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="N4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
         <v>5</v>
       </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-1</v>
-      </c>
       <c r="S4" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="1">
         <v>40</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="b">
+      <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
         <v>5</v>
       </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-1</v>
-      </c>
       <c r="S5" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>53</v>
+      <c r="F6" s="1">
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
       </c>
       <c r="N6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="R6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -1297,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1332,13 +1399,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -1379,7 +1446,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75537E-476D-405C-9FDE-FF0EBB67DA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,12 +316,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,18 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트용 스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +398,6 @@
     <t>isOnTakeDamage</t>
   </si>
   <si>
-    <t>테스트용 패시브 스킬1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,12 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestBasicAttack</t>
-  </si>
-  <si>
-    <t>TestPassiveSkill</t>
-  </si>
-  <si>
     <t>skillClassName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,22 +439,12 @@
     <t>Firstpriority</t>
   </si>
   <si>
-    <t>TestActiveSkillFirst</t>
-  </si>
-  <si>
     <t>MultipleAttack</t>
   </si>
   <si>
-    <t>테스트용 스킬2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isAllyTarget</t>
   </si>
   <si>
-    <t>TestActiveSkill</t>
-  </si>
-  <si>
     <t>MultipleHeal</t>
   </si>
   <si>
@@ -511,25 +478,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emerald (1)</t>
-  </si>
-  <si>
-    <t>emerald (2)</t>
-  </si>
-  <si>
-    <t>emerald (3)</t>
-  </si>
-  <si>
     <t>emerald (4)</t>
   </si>
   <si>
     <t>emerald (5)</t>
   </si>
   <si>
-    <t>emerald (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아군 전체에게 유닛 공격력의 {0}% 만큼 체력을 회복시킵니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -545,14 +499,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적 전체에게 자신의 공격력만큼의 피해를 입힌다.</t>
+    <t>타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투의 함성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹렬한 타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 {0}턴동안 [공격력 상승] 버프를 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_ZICH_BaseAttack</t>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_ZICH_ActiveSkill_1</t>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_ZICH_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>전투 태세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작시 자신의 공격력을 {0}% 만큼 상승 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_ZICH_PassiveSkill_1</t>
+  </si>
+  <si>
+    <t>Skill_ZICH_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ZICH_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ZICH_ActiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_ZICH_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 자신의 기본 공격력의 100% 만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 전체에게 자신의 기본 공격력의 (100 + {0})%만큼 피해를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -606,15 +616,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -894,22 +1017,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="1" bestFit="1" customWidth="1"/>
@@ -926,287 +1050,287 @@
     <col min="23" max="23" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>2</v>
+      </c>
+      <c r="N3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="V3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="M4" s="9">
+        <v>1</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>3</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="V3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>4</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>5</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="1">
+      <c r="S4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="9">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="9">
         <v>-1</v>
       </c>
     </row>
@@ -1214,17 +1338,17 @@
       <c r="A5" s="1">
         <v>10003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1">
         <v>40</v>
@@ -1236,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -1285,17 +1409,17 @@
       <c r="A6" s="1">
         <v>10004</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -1307,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1361,11 +1485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,24 +1497,26 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1399,83 +1525,101 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:18" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
         <v>20000</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="O2" s="1">
+      <c r="E2" s="16">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1</v>
+      </c>
+      <c r="J2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="16">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC86D9-DE29-486F-ADFB-0BBB19646434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,12 +317,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -562,7 +563,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -693,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,10 +709,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,9 +720,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,17 +1011,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
@@ -1125,7 +1119,7 @@
       <c r="A2" s="2">
         <v>10000</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1192,145 +1186,145 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>10001</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
         <v>5</v>
       </c>
-      <c r="S3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="6">
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
         <v>1000</v>
       </c>
-      <c r="V3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="6">
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+    <row r="4" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>10002</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>10</v>
       </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9">
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
         <v>3</v>
       </c>
-      <c r="M4" s="9">
-        <v>1</v>
-      </c>
-      <c r="N4" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="9">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
         <v>5</v>
       </c>
-      <c r="S4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="9">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="9">
+      <c r="S4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="7">
         <v>-1</v>
       </c>
     </row>
@@ -1338,7 +1332,7 @@
       <c r="A5" s="1">
         <v>10003</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1409,7 +1403,7 @@
       <c r="A6" s="1">
         <v>10004</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1485,11 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1567,59 +1561,59 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+    <row r="2" spans="1:18" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>20000</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>20</v>
       </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16" t="s">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="16">
-        <v>1</v>
-      </c>
-      <c r="J2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="16">
+      <c r="I2" s="13">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="13">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEAC86D9-DE29-486F-ADFB-0BBB19646434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -317,12 +316,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -342,7 +341,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,13 +556,79 @@
   </si>
   <si>
     <t>적군 전체에게 자신의 기본 공격력의 (100 + {0})%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singleattack</t>
+  </si>
+  <si>
+    <t>사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 자신의 기본 공격력의 80% 만큼 피해를 입힙니다. 대상에게 [낙인] 상태이상이 없다면 2턴간 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_BaseAttack</t>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>치명적인 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 치명적인 사격을 가해 기본 공격력의 (100 + {0})%의 피해를 가한다.
+낙인 상태이상이 있다면 반드시 치명타 피해로 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다발 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 전체에게 기본 공격력의 (50 + {0})%의 피해를 가한다. 적에게 낙인 상태이상이 있다면 치명타 피해로 들어가며, 없다면 2턴간 낙인 상태이상을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정조준 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[전투 시작 시] 자신의 치명타 피해를 (25 + {0})% 만큼 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_ActiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_PassiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,44 +759,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1011,20 +1100,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="D3:E3"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.75" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.625" style="1" bestFit="1" customWidth="1"/>
@@ -1042,6 +1131,7 @@
     <col min="21" max="21" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1057,7 +1147,7 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1115,82 +1205,82 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:23" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>10000</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="3">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>10001</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1199,7 +1289,7 @@
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="1">
@@ -1257,216 +1347,429 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="8" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>10002</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="11">
         <v>10</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
         <v>3</v>
       </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="M4" s="11">
+        <v>1</v>
+      </c>
+      <c r="N4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="11">
         <v>5</v>
       </c>
-      <c r="S4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="7">
+      <c r="S4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="11">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="11">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:23" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>10003</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5">
+        <v>1002</v>
+      </c>
+      <c r="V5" s="5">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="12" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="11">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
+      <c r="M7" s="11">
+        <v>3</v>
+      </c>
+      <c r="N7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11">
+        <v>5</v>
+      </c>
+      <c r="S7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="11">
+        <v>1002</v>
+      </c>
+      <c r="V7" s="11">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F8" s="1">
         <v>40</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>6</v>
       </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="1">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="9" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="1">
         <v>-1</v>
       </c>
     </row>
@@ -1479,30 +1782,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.25" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1561,59 +1866,115 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
+    <row r="2" spans="1:18" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17">
         <v>20000</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="18">
         <v>20</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="13">
-        <v>1</v>
-      </c>
-      <c r="J2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="13">
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17">
+        <v>20001</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="18">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -528,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 시작시 자신의 공격력을 {0}% 만큼 상승 시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_SkillIcon_ZICH_PassiveSkill_1</t>
   </si>
   <si>
@@ -580,48 +576,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>다발 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정조준 사격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[전투 시작 시] 자신의 치명타 피해를 (25 + {0})% 만큼 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_ActiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LOSA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LOSA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[전투 시작 시] 자신의 공격력을 {0}% 만큼 상승 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적군 한명에게 치명적인 사격을 가해 기본 공격력의 (100 + {0})%의 피해를 가한다.
-낙인 상태이상이 있다면 반드시 치명타 피해로 들어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다발 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적군 전체에게 기본 공격력의 (50 + {0})%의 피해를 가한다. 적에게 낙인 상태이상이 있다면 치명타 피해로 들어가며, 없다면 2턴간 낙인 상태이상을 부여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정조준 사격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[전투 시작 시] 자신의 치명타 피해를 (25 + {0})% 만큼 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_LOSA_BaseAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_LOSA_ActiveSkill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_LOSA_ActiveSkill_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_SkillIcon_LOSA_ActiveSkill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill_LOSA_PassiveSkill_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_SkillIcon_LOSA_PassiveSkill_1</t>
+[낙인] 상태이상이 있다면 반드시 치명타 피해로 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 전체에게 기본 공격력의 (50 + {0})%의 피해를 가한다. 적에게 [낙인] 상태이상이 있다면 치명타 피해로 들어가며, 없다면 2턴간 [낙인] 상태이상을 부여한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1210,7 +1210,7 @@
         <v>10000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
@@ -1219,7 +1219,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>10001</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>26</v>
@@ -1352,7 +1352,7 @@
         <v>10002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>27</v>
@@ -1361,7 +1361,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="11">
         <v>10</v>
@@ -1423,28 +1423,28 @@
         <v>10003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
@@ -1489,21 +1489,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>10004</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F6" s="1">
         <v>20</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>
@@ -1565,16 +1565,16 @@
         <v>10005</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F7" s="11">
         <v>5</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
@@ -1785,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1871,13 +1871,13 @@
         <v>20000</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E2" s="18">
         <v>20</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="18">
         <v>1</v>
@@ -1927,13 +1927,13 @@
         <v>20001</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E3" s="18">
         <v>5</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I3" s="18">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2006084B-A85D-4339-90DF-66E5C02B5D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -316,12 +317,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -341,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="98">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,13 +623,86 @@
   </si>
   <si>
     <t>적군 전체에게 기본 공격력의 (50 + {0})%의 피해를 가한다. 적에게 [낙인] 상태이상이 있다면 치명타 피해로 들어가며, 없다면 2턴간 [낙인] 상태이상을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_LILY_BaseAttack</t>
+  </si>
+  <si>
+    <t>찌르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 자신의 기본 공격력의 75% 만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LILY_BaseAttack</t>
+  </si>
+  <si>
+    <t>Skill_LILY_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 입은 아군 한명의 체력을 자신의 공격력의 (80 + {0})% 만큼 회복 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LILY_ActiveSkill_1</t>
+  </si>
+  <si>
+    <t>Skill_LILY_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>신성한 보호</t>
+  </si>
+  <si>
+    <t>아군 전체의 체력을 자신의 공격력의 (50 + {0})% 만큼 회복 시키고 [방어력 상승] 버프를 3턴간 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LILY_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>Skill_LILY_PassiveSkill_1</t>
+  </si>
+  <si>
+    <t>긴급 치료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[기본 공격 시] 가장 체력이 낮은 아군의 체력을 (10 + {0})% 만큼 회복 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LILY_PassiveSkill_1</t>
+  </si>
+  <si>
+    <t>Skill_LILY_PassiveSkill_2</t>
+  </si>
+  <si>
+    <t>회복의 전염</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [사망 시] 아군 전체의 체력을 (25 + {0})% 만큼 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_LILY_PassiveSkill_2</t>
+  </si>
+  <si>
+    <t>isOnDead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -674,7 +748,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -683,19 +757,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -703,63 +916,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,23 +940,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,19 +992,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,10 +1003,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1100,20 +1321,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="48.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="16.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="32.625" style="1" bestFit="1" customWidth="1"/>
@@ -1134,642 +1355,855 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:23" s="12" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:23" s="21" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>10000</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19">
+        <v>0</v>
+      </c>
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1</v>
-      </c>
-      <c r="S2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="V2" s="5">
-        <v>-1</v>
-      </c>
-      <c r="W2" s="5">
+      <c r="J2" s="19">
+        <v>0</v>
+      </c>
+      <c r="K2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="19">
+        <v>1</v>
+      </c>
+      <c r="S2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="19">
+        <v>0</v>
+      </c>
+      <c r="U2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="W2" s="19">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+    <row r="3" spans="1:23" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
         <v>10001</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="N3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6">
         <v>5</v>
       </c>
-      <c r="S3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="S3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="6">
         <v>1000</v>
       </c>
-      <c r="V3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="V3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W3" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="12" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+    <row r="4" spans="1:23" s="27" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23">
         <v>10002</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="25">
         <v>10</v>
       </c>
-      <c r="G4" s="11">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="11">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="J4" s="25">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="25">
         <v>3</v>
       </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="11">
+      <c r="M4" s="25">
+        <v>1</v>
+      </c>
+      <c r="N4" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="25">
         <v>5</v>
       </c>
-      <c r="S4" s="11">
-        <v>-1</v>
-      </c>
-      <c r="T4" s="11">
-        <v>-1</v>
-      </c>
-      <c r="U4" s="11">
-        <v>-1</v>
-      </c>
-      <c r="V4" s="11">
-        <v>-1</v>
-      </c>
-      <c r="W4" s="11">
+      <c r="S4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="25">
+        <v>-1</v>
+      </c>
+      <c r="W4" s="25">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="6" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:23" s="21" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>10003</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="19">
+        <v>0</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>0</v>
+      </c>
+      <c r="M5" s="19">
+        <v>0</v>
+      </c>
+      <c r="N5" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1</v>
+      </c>
+      <c r="S5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="19">
+        <v>0</v>
+      </c>
+      <c r="U5" s="19">
         <v>1002</v>
       </c>
-      <c r="V5" s="5">
-        <v>-1</v>
-      </c>
-      <c r="W5" s="5">
+      <c r="V5" s="19">
+        <v>-1</v>
+      </c>
+      <c r="W5" s="19">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
         <v>10004</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="6">
         <v>20</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="6">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="N6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6">
         <v>1002</v>
       </c>
-      <c r="V6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W6" s="1">
+      <c r="V6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W6" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="12" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:23" s="27" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
         <v>10005</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="25">
         <v>5</v>
       </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
         <v>3</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="25">
         <v>3</v>
       </c>
-      <c r="N7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="P7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="R7" s="11">
+      <c r="N7" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25">
         <v>5</v>
       </c>
-      <c r="S7" s="11">
-        <v>-1</v>
-      </c>
-      <c r="T7" s="11">
-        <v>-1</v>
-      </c>
-      <c r="U7" s="11">
+      <c r="S7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="25">
         <v>1002</v>
       </c>
-      <c r="V7" s="11">
-        <v>-1</v>
-      </c>
-      <c r="W7" s="11">
+      <c r="V7" s="25">
+        <v>-1</v>
+      </c>
+      <c r="W7" s="25">
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:23" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
         <v>10006</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>0</v>
+      </c>
+      <c r="N8" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="19">
+        <v>0</v>
+      </c>
+      <c r="U8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="19">
+        <v>-1</v>
+      </c>
+      <c r="W8" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="6">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="27" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="25">
+        <v>5</v>
+      </c>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="25">
+        <v>0</v>
+      </c>
+      <c r="K10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25">
+        <v>3</v>
+      </c>
+      <c r="M10" s="25">
+        <v>3</v>
+      </c>
+      <c r="N10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" s="25">
+        <v>5</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="25">
+        <v>1003</v>
+      </c>
+      <c r="V10" s="25">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F11" s="13">
         <v>40</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
         <v>6</v>
       </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="M11" s="13">
+        <v>1</v>
+      </c>
+      <c r="N11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11" s="13">
         <v>5</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W8" s="1">
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="13">
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="12" spans="1:23" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="W9" s="1">
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="6">
         <v>-1</v>
       </c>
     </row>
@@ -1782,11 +2216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1794,10 +2228,10 @@
     <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.625" style="2" bestFit="1" customWidth="1"/>
@@ -1805,176 +2239,304 @@
     <col min="13" max="13" width="13.5" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="16" max="16" width="17.25" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:19" s="30" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17">
+    <row r="2" spans="1:19" s="30" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
         <v>20000</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="29">
         <v>20</v>
       </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18" t="s">
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18">
-        <v>1</v>
-      </c>
-      <c r="J2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>-1</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>-1</v>
-      </c>
-      <c r="R2" s="18">
+      <c r="I2" s="29">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="29">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="29">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17">
+    <row r="3" spans="1:19" s="36" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33">
         <v>20001</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="34">
         <v>5</v>
       </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="18">
-        <v>1</v>
-      </c>
-      <c r="J3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>-1</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>-1</v>
-      </c>
-      <c r="R3" s="18">
+      <c r="I3" s="34">
+        <v>1</v>
+      </c>
+      <c r="J3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="34">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="34">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>20002</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="19">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="27" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="25">
+        <v>5</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="25">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="25">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="25">
         <v>-1</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A73923B-56BD-46E5-9E9D-5FCBCB97FA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080F6B7-C6D4-47B5-9D67-CF472EAB516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,13 +384,7 @@
     <t>BasicAttack</t>
   </si>
   <si>
-    <t>Firstpriority</t>
-  </si>
-  <si>
     <t>MultipleAttack</t>
-  </si>
-  <si>
-    <t>MultipleHeal</t>
   </si>
   <si>
     <t>SingleHeal</t>
@@ -610,6 +604,97 @@
   </si>
   <si>
     <t>피해를 입은 아군 한명의 체력을 (30 + {0})% 만큼 회복 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_AVATA_BaseAttack</t>
+  </si>
+  <si>
+    <t>삼점타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 자신의 기본 공격력의 40% 피해를 3회 입힙니다.</t>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_AVATA_BaseAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_AVATA_ActiveSkill_1</t>
+  </si>
+  <si>
+    <t>Skill_AVATA_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>땅 고르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 전체에게 기본 공격력의 (50 + {0})%의 피해를 가하고 [불안정] 상태이상을 3턴간 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_AVATA_ActiveSkill_1</t>
+  </si>
+  <si>
+    <t>MultipleHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 한명당 [효과 판단] 하여 성공시 마나를 1 회복합니다. (스킬레벨 1당 쿨타임 -1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_AVATA_ActiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firstpriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_AVATA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_AVATA_PassiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사자후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[턴 시작 시] 효과 적중을 {0}% 만큼 획득 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_AVATA_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[턴 시작 시] {0}% 확률로 마나를 1 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_AVATA_PassiveSkill_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -841,11 +926,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,6 +1052,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D10:O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1249,7 +1356,7 @@
     <col min="1" max="1" width="6.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="48.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="32.625" style="1" bestFit="1" customWidth="1"/>
@@ -1264,503 +1371,653 @@
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
+    <row r="1" spans="1:16" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>10000</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="32" t="s">
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="5">
         <v>3</v>
       </c>
-      <c r="J1" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="31" t="s">
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <v>10000</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="4" spans="1:16" s="20" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="18">
+        <v>10</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="18">
+        <v>3</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1</v>
+      </c>
+      <c r="P4" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1002</v>
+      </c>
+      <c r="K5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>10004</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1002</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="N6" s="5">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5">
+        <v>2</v>
+      </c>
+      <c r="P6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="9" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>10001</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6">
+    <row r="7" spans="1:16" s="20" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="18">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1002</v>
+      </c>
+      <c r="K7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="N7" s="18">
+        <v>3</v>
+      </c>
+      <c r="O7" s="18">
+        <v>3</v>
+      </c>
+      <c r="P7" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>10006</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="6" t="s">
+    </row>
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>10007</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="37">
+        <v>10008</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="39">
+        <v>5</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="39">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1003</v>
+      </c>
+      <c r="K10" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="39">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="39">
+        <v>3</v>
+      </c>
+      <c r="O10" s="39">
+        <v>3</v>
+      </c>
+      <c r="P10" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10009</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>10010</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="6">
-        <v>3</v>
-      </c>
-      <c r="O3" s="6">
+      <c r="N12" s="5">
         <v>2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="21" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
-        <v>10002</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="19">
-        <v>10</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="19">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="19">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="19">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="19">
-        <v>3</v>
-      </c>
-      <c r="O4" s="19">
-        <v>1</v>
-      </c>
-      <c r="P4" s="19">
+    <row r="13" spans="1:16" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16">
+        <v>10011</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="18">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <v>10003</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1002</v>
-      </c>
-      <c r="K5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>10004</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1002</v>
-      </c>
-      <c r="K6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="6">
-        <v>2</v>
-      </c>
-      <c r="O6" s="6">
-        <v>2</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="21" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
-        <v>10005</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="19">
-        <v>5</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="19">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1002</v>
-      </c>
-      <c r="K7" s="19">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="19">
-        <v>3</v>
-      </c>
-      <c r="O7" s="19">
-        <v>3</v>
-      </c>
-      <c r="P7" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <v>10006</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L8" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>10007</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="6">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="21" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
-        <v>10008</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="19">
-        <v>5</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="19">
-        <v>0</v>
-      </c>
-      <c r="J10" s="19">
-        <v>1003</v>
-      </c>
-      <c r="K10" s="19">
-        <v>-1</v>
-      </c>
-      <c r="L10" s="19">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="19">
-        <v>3</v>
-      </c>
-      <c r="O10" s="19">
-        <v>3</v>
-      </c>
-      <c r="P10" s="19">
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
         <v>5</v>
       </c>
     </row>
@@ -1774,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1802,299 +2059,417 @@
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
+    <row r="1" spans="1:19" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="35" t="s">
+      <c r="H1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="37" t="s">
-        <v>80</v>
+      <c r="S1" s="36" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+    <row r="2" spans="1:19" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21">
         <v>20000</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="23">
+      <c r="B2" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="22">
         <v>20</v>
       </c>
-      <c r="F2" s="23">
-        <v>0</v>
-      </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="F2" s="22">
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="23">
-        <v>-1</v>
-      </c>
-      <c r="K2" s="23">
-        <v>-1</v>
-      </c>
-      <c r="L2" s="23">
-        <v>-1</v>
-      </c>
-      <c r="M2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="24" t="b">
+      <c r="J2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="P2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="24" t="b">
+      <c r="P2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+    <row r="3" spans="1:19" s="28" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="25">
         <v>20001</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="B3" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="26">
         <v>5</v>
       </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="27">
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="26">
         <v>1</v>
       </c>
-      <c r="J3" s="27">
-        <v>-1</v>
-      </c>
-      <c r="K3" s="27">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="27">
-        <v>-1</v>
-      </c>
-      <c r="M3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="29" t="b">
+      <c r="J3" s="26">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="26">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="26">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="P3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="29" t="b">
+      <c r="P3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="1:19" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>20002</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="12">
+        <v>5</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="I4" s="12">
+        <v>1</v>
+      </c>
+      <c r="J4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37">
+        <v>20003</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="13">
+      <c r="C5" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="39">
         <v>5</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="13">
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="39">
         <v>1</v>
       </c>
-      <c r="J4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L4" s="13">
-        <v>-1</v>
-      </c>
-      <c r="M4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15" t="b">
+      <c r="J5" s="39">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="39">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="R4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" s="21" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>20003</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="19">
-        <v>5</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="19">
+    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>20004</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="12">
         <v>1</v>
       </c>
-      <c r="J5" s="19">
-        <v>-1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>-1</v>
-      </c>
-      <c r="L5" s="19">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21" t="b">
+      <c r="J6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="b">
         <v>1</v>
+      </c>
+      <c r="Q6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="18">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F080F6B7-C6D4-47B5-9D67-CF472EAB516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -286,12 +285,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +310,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>activeSkillType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BasicAttack</t>
   </si>
   <si>
@@ -462,9 +457,6 @@
   <si>
     <t>적군 전체에게 자신의 기본 공격력의 (100 + {0})%만큼 피해를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Singleattack</t>
   </si>
   <si>
     <t>사격</t>
@@ -695,13 +687,110 @@
   </si>
   <si>
     <t>Sprite_SkillIcon_AVATA_PassiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_GWEN_BaseAttack</t>
+  </si>
+  <si>
+    <t>단검 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 기본 공격력의 80% 데미지를 입힙니다. 만약 적이 죽으면 마나 1를 추가 회복하고 가장 체력이 가장 적은 적에게 한번 팅깁니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_GWEN_BaseAttack</t>
+  </si>
+  <si>
+    <t>Skill_GWEN_ActiveSkill_1</t>
+  </si>
+  <si>
+    <t>다중 베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적군 한명에게 기본 공격력의 {0}%로 7회 베기 공격을 합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_GWEN_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleAttack</t>
+  </si>
+  <si>
+    <t>SingleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activeSkillType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_GWEN_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>칼날 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_GWEN_ActiveSkill_2</t>
+  </si>
+  <si>
+    <t>MultipleAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firstpriority</t>
+  </si>
+  <si>
+    <t>Firstpriority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 전체에게 [칼날 방패] 버프를 (1 + {0}) 턴간 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_GWEN_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 바르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[피해를 입힐 시] 적에게 [효과 판단] 하여 [독]중첩을 부여합니다. (스킬 레벨 1당 효과 적중 {0}% 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_GWEN_PassiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_GWEN_PassiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[피해를 입을 시] {0}% 확률로 [은신] 상태이상이 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_GWEN_PassiveSkill_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1344,11 +1433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1385,16 +1474,16 @@
         <v>17</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>3</v>
@@ -1409,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>4</v>
@@ -1426,13 +1515,13 @@
         <v>10000</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -1444,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="12">
         <v>0</v>
@@ -1459,7 +1548,7 @@
         <v>-1</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="12">
         <v>0</v>
@@ -1476,13 +1565,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1494,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -1509,7 +1598,7 @@
         <v>-1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
@@ -1526,13 +1615,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="18">
         <v>10</v>
@@ -1544,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -1559,7 +1648,7 @@
         <v>-1</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="N4" s="18">
         <v>3</v>
@@ -1571,30 +1660,30 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="14" customFormat="1" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>10003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1609,7 +1698,7 @@
         <v>-1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" s="12">
         <v>0</v>
@@ -1621,18 +1710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>10004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -1644,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1659,7 +1748,7 @@
         <v>-1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N6" s="5">
         <v>2</v>
@@ -1671,18 +1760,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="20" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="20" customFormat="1" ht="50.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>10005</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E7" s="18">
         <v>5</v>
@@ -1694,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="18">
         <v>0</v>
@@ -1709,7 +1798,7 @@
         <v>-1</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N7" s="18">
         <v>3</v>
@@ -1721,31 +1810,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="14" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>10006</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>63</v>
-      </c>
       <c r="I8" s="12">
         <v>0</v>
       </c>
@@ -1759,7 +1848,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
@@ -1771,18 +1860,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>10007</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
@@ -1794,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1809,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
@@ -1821,18 +1910,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="9" customFormat="1" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="37">
         <v>10008</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="39">
         <v>5</v>
@@ -1844,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I10" s="39">
         <v>0</v>
@@ -1859,7 +1948,7 @@
         <v>-1</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N10" s="39">
         <v>3</v>
@@ -1871,46 +1960,46 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="14" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10009</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="N11" s="12">
         <v>0</v>
       </c>
@@ -1921,18 +2010,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>10010</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="5">
         <v>10</v>
@@ -1944,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -1959,7 +2048,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N12" s="5">
         <v>2</v>
@@ -1971,53 +2060,203 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+    <row r="13" spans="1:16" s="9" customFormat="1" ht="33.75" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="37">
         <v>10011</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="39">
+        <v>0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+      <c r="H13" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="I13" s="39">
+        <v>0</v>
+      </c>
+      <c r="J13" s="39">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="39">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>-1</v>
-      </c>
-      <c r="K13" s="18">
-        <v>-1</v>
-      </c>
-      <c r="L13" s="18">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N13" s="18">
+      <c r="N13" s="39">
         <v>5</v>
       </c>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
+      <c r="O13" s="39">
+        <v>0</v>
+      </c>
+      <c r="P13" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="14" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>10012</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="12">
+        <v>0</v>
+      </c>
+      <c r="O14" s="12">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>10013</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>10014</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N16" s="18">
+        <v>3</v>
+      </c>
+      <c r="O16" s="18">
+        <v>2</v>
+      </c>
+      <c r="P16" s="18">
         <v>5</v>
       </c>
     </row>
@@ -2030,11 +2269,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2049,13 +2288,13 @@
     <col min="9" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2073,16 +2312,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>3</v>
@@ -2097,7 +2336,7 @@
         <v>16</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>6</v>
@@ -2115,7 +2354,7 @@
         <v>10</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2123,13 +2362,13 @@
         <v>20000</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="22">
         <v>20</v>
@@ -2141,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="22">
         <v>1</v>
@@ -2155,25 +2394,25 @@
       <c r="L2" s="22">
         <v>-1</v>
       </c>
-      <c r="M2" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="23" t="b">
+      <c r="M2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2182,13 +2421,13 @@
         <v>20001</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="26">
         <v>5</v>
@@ -2200,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="26">
         <v>1</v>
@@ -2214,25 +2453,25 @@
       <c r="L3" s="26">
         <v>-1</v>
       </c>
-      <c r="M3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28" t="b">
+      <c r="M3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2241,13 +2480,13 @@
         <v>20002</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="E4" s="12">
         <v>5</v>
@@ -2259,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="12">
         <v>1</v>
@@ -2273,25 +2512,25 @@
       <c r="L4" s="12">
         <v>-1</v>
       </c>
-      <c r="M4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="14" t="b">
+      <c r="M4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2300,13 +2539,13 @@
         <v>20003</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>76</v>
       </c>
       <c r="E5" s="39">
         <v>5</v>
@@ -2318,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I5" s="39">
         <v>1</v>
@@ -2332,25 +2571,25 @@
       <c r="L5" s="39">
         <v>-1</v>
       </c>
-      <c r="M5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9" t="b">
+      <c r="M5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" s="39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2359,13 +2598,13 @@
         <v>20004</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>101</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2377,98 +2616,216 @@
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="37">
+        <v>20005</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="39">
+        <v>20</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="12">
-        <v>1</v>
-      </c>
-      <c r="J6" s="12">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="12">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="14" t="b">
+      <c r="I7" s="39">
+        <v>1</v>
+      </c>
+      <c r="J7" s="39">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="39">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="16">
-        <v>20005</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="18">
-        <v>20</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="18">
-        <v>-1</v>
-      </c>
-      <c r="L7" s="18">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="20" t="b">
+    <row r="8" spans="1:19" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1001</v>
+      </c>
+      <c r="K8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="16">
+        <v>20007</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="18">
+        <v>10</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1005</v>
+      </c>
+      <c r="K9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA6AE7-03DC-4560-A6E0-BFBD59C2F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -285,12 +286,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>만든 이</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -310,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,18 +338,6 @@
   </si>
   <si>
     <t>isAllEnemy</t>
-  </si>
-  <si>
-    <t>isOnStartBattle</t>
-  </si>
-  <si>
-    <t>isOnStartTurn</t>
-  </si>
-  <si>
-    <t>isOnAttack</t>
-  </si>
-  <si>
-    <t>isOnTakeDamage</t>
   </si>
   <si>
     <t>skillName</t>
@@ -585,10 +574,6 @@
   </si>
   <si>
     <t>Sprite_SkillIcon_LILY_PassiveSkill_2</t>
-  </si>
-  <si>
-    <t>isOnDead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>아군 전체의 체력을 (25 + {0})% 만큼 회복 시키고 [방어력 상승] 버프를 3턴간 부여합니다.</t>
@@ -790,7 +775,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1433,7 +1418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1465,46 +1450,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>17</v>
-      </c>
       <c r="E1" s="31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P1" s="30" t="s">
         <v>5</v>
@@ -1515,26 +1500,26 @@
         <v>10000</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" s="12">
         <v>0</v>
       </c>
@@ -1548,7 +1533,7 @@
         <v>-1</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N2" s="12">
         <v>0</v>
@@ -1565,13 +1550,13 @@
         <v>10001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -1583,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -1598,7 +1583,7 @@
         <v>-1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
@@ -1615,13 +1600,13 @@
         <v>10002</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4" s="18">
         <v>10</v>
@@ -1633,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -1648,7 +1633,7 @@
         <v>-1</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="N4" s="18">
         <v>3</v>
@@ -1665,13 +1650,13 @@
         <v>10003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1683,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="12">
         <v>0</v>
@@ -1698,7 +1683,7 @@
         <v>-1</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N5" s="12">
         <v>0</v>
@@ -1715,13 +1700,13 @@
         <v>10004</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E6" s="5">
         <v>20</v>
@@ -1733,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I6" s="5">
         <v>0</v>
@@ -1748,7 +1733,7 @@
         <v>-1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N6" s="5">
         <v>2</v>
@@ -1765,13 +1750,13 @@
         <v>10005</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E7" s="18">
         <v>5</v>
@@ -1783,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="18">
         <v>0</v>
@@ -1798,7 +1783,7 @@
         <v>-1</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N7" s="18">
         <v>3</v>
@@ -1815,13 +1800,13 @@
         <v>10006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="12">
         <v>0</v>
@@ -1833,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I8" s="12">
         <v>0</v>
@@ -1848,7 +1833,7 @@
         <v>-1</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
@@ -1865,13 +1850,13 @@
         <v>10007</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
@@ -1883,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5">
         <v>0</v>
@@ -1898,7 +1883,7 @@
         <v>-1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
@@ -1915,13 +1900,13 @@
         <v>10008</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="39">
         <v>5</v>
@@ -1933,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I10" s="39">
         <v>0</v>
@@ -1948,7 +1933,7 @@
         <v>-1</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N10" s="39">
         <v>3</v>
@@ -1965,13 +1950,13 @@
         <v>10009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
@@ -1983,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I11" s="12">
         <v>0</v>
@@ -1998,7 +1983,7 @@
         <v>-1</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -2015,13 +2000,13 @@
         <v>10010</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5">
         <v>10</v>
@@ -2033,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I12" s="5">
         <v>0</v>
@@ -2048,7 +2033,7 @@
         <v>-1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N12" s="5">
         <v>2</v>
@@ -2065,13 +2050,13 @@
         <v>10011</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E13" s="39">
         <v>0</v>
@@ -2083,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I13" s="39">
         <v>0</v>
@@ -2098,7 +2083,7 @@
         <v>-1</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N13" s="39">
         <v>5</v>
@@ -2115,13 +2100,13 @@
         <v>10012</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E14" s="12">
         <v>0</v>
@@ -2133,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I14" s="12">
         <v>0</v>
@@ -2148,7 +2133,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -2165,13 +2150,13 @@
         <v>10013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E15" s="5">
         <v>10</v>
@@ -2183,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2198,7 +2183,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
@@ -2215,13 +2200,13 @@
         <v>10014</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
@@ -2233,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
@@ -2248,7 +2233,7 @@
         <v>-1</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="N16" s="18">
         <v>3</v>
@@ -2269,11 +2254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="O1" sqref="O1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2290,20 +2275,15 @@
     <col min="11" max="12" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>1</v>
@@ -2312,63 +2292,48 @@
         <v>2</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M1" s="36" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="23" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21">
         <v>20000</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E2" s="22">
         <v>20</v>
@@ -2380,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="22">
         <v>1</v>
@@ -2400,34 +2365,19 @@
       <c r="N2" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="O2" s="22" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="22" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" s="28" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" s="28" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25">
         <v>20001</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E3" s="26">
         <v>5</v>
@@ -2439,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I3" s="26">
         <v>1</v>
@@ -2459,34 +2409,19 @@
       <c r="N3" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="26" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>20002</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" s="12">
         <v>5</v>
@@ -2498,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" s="12">
         <v>1</v>
@@ -2518,34 +2453,19 @@
       <c r="N4" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="12" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37">
         <v>20003</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E5" s="39">
         <v>5</v>
@@ -2557,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" s="39">
         <v>1</v>
@@ -2577,34 +2497,19 @@
       <c r="N5" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="O5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="39" t="b">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>20004</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E6" s="12">
         <v>2</v>
@@ -2616,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
@@ -2636,34 +2541,19 @@
       <c r="N6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S6" s="12" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:19" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37">
         <v>20005</v>
       </c>
       <c r="B7" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>101</v>
       </c>
       <c r="E7" s="39">
         <v>20</v>
@@ -2675,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I7" s="39">
         <v>1</v>
@@ -2695,34 +2585,19 @@
       <c r="N7" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="O7" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="S7" s="39" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:19" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>20006</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E8" s="12">
         <v>10</v>
@@ -2734,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I8" s="12">
         <v>1</v>
@@ -2754,34 +2629,19 @@
       <c r="N8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:19" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>20007</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E9" s="18">
         <v>10</v>
@@ -2793,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I9" s="18">
         <v>1</v>
@@ -2811,21 +2671,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EA6AE7-03DC-4560-A6E0-BFBD59C2F481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E889C0-1735-4FDE-85D4-621C61581519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -696,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">적군 한명에게 기본 공격력의 {0}%로 7회 베기 공격을 합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_SkillIcon_GWEN_ActiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,10 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[피해를 입힐 시] 적에게 [효과 판단] 하여 [독]중첩을 부여합니다. (스킬 레벨 1당 효과 적중 {0}% 증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sprite_SkillIcon_GWEN_PassiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -769,6 +761,14 @@
   </si>
   <si>
     <t>Sprite_SkillIcon_GWEN_PassiveSkill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군 한명에게 기본 공격력의 {0}%로 7회 베기 공격을 합니다. 이 공격은 전열을 우선시 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[피해를 입힐 시] 적에게 [효과 판단] 하여 [독]중첩을 부여합니다. (스킬 레벨 1당 효과 적중 10% 증가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,7 +1422,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="30" t="s">
         <v>4</v>
@@ -1583,7 +1583,7 @@
         <v>-1</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="5">
         <v>3</v>
@@ -1633,7 +1633,7 @@
         <v>-1</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N4" s="18">
         <v>3</v>
@@ -1733,7 +1733,7 @@
         <v>-1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" s="5">
         <v>2</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -2156,7 +2156,7 @@
         <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E15" s="5">
         <v>10</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I15" s="5">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>-1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N15" s="5">
         <v>1</v>
@@ -2200,13 +2200,13 @@
         <v>10014</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="18">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="18">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>-1</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N16" s="18">
         <v>3</v>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2591,13 +2591,13 @@
         <v>20006</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>117</v>
-      </c>
       <c r="D8" s="13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E8" s="12">
         <v>10</v>
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I8" s="12">
         <v>1</v>
@@ -2635,13 +2635,13 @@
         <v>20007</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="E9" s="18">
         <v>10</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" s="18">
         <v>1</v>

--- a/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
+++ b/Portfolio_2D/Assets/05. DataTable/SkillDataTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E889C0-1735-4FDE-85D4-621C61581519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7900CD42-4E70-40BA-B614-043B28BE7B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActiveSkillData" sheetId="1" r:id="rId1"/>
@@ -311,7 +311,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="128">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,22 @@
   </si>
   <si>
     <t>[피해를 입힐 시] 적에게 [효과 판단] 하여 [독]중첩을 부여합니다. (스킬 레벨 1당 효과 적중 10% 증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈의 손길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill_DeathBringer_ActiveSkill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군중 무작위 한명을 선택하여 자신의 공격력의 (80 +{0})% 만큼 데미지를 입힙니다. 그리고 연결된 유닛에게도  반절의 데미지를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_SkillIcon_DeathBringer_ActiveSkill_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,7 +1033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1138,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1433,7 +1452,7 @@
     <col min="4" max="4" width="48.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
@@ -2195,54 +2214,104 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="20" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16">
+    <row r="16" spans="1:16" s="9" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="37">
         <v>10014</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="39">
         <v>1</v>
       </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18" t="s">
+      <c r="F16" s="39">
+        <v>0</v>
+      </c>
+      <c r="G16" s="39">
+        <v>0</v>
+      </c>
+      <c r="H16" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="18">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
+      <c r="I16" s="39">
+        <v>0</v>
+      </c>
+      <c r="J16" s="39">
         <v>1006</v>
       </c>
-      <c r="K16" s="18">
-        <v>-1</v>
-      </c>
-      <c r="L16" s="18">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="18" t="s">
+      <c r="K16" s="39">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="39">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="39">
         <v>3</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="39">
         <v>2</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="39">
         <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21">
+        <v>10015</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="22">
+        <v>20</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="22">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="22">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="22">
+        <v>3</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2257,8 +2326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
